--- a/data/documentation/spreadsheets/done/bolt@bolt.xlsx
+++ b/data/documentation/spreadsheets/done/bolt@bolt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\USP-2020\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19468156-4D3B-453E-9582-280B5996BF0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13EEBEB-C591-411D-930B-A826086D0ECB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -627,8 +627,8 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -819,78 +819,75 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="45" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -898,7 +895,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
@@ -906,14 +903,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" t="s">
         <v>77</v>
       </c>
     </row>
@@ -924,9 +918,6 @@
       <c r="B49" t="s">
         <v>77</v>
       </c>
-      <c r="F49" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
@@ -935,9 +926,6 @@
       <c r="B50" t="s">
         <v>77</v>
       </c>
-      <c r="G50" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
@@ -960,9 +948,6 @@
     <row r="54" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="B54" t="s">
-        <v>77</v>
       </c>
       <c r="D54" t="s">
         <v>77</v>
